--- a/Project_python/ref/Top2vec/optimization_top2vec.xlsx
+++ b/Project_python/ref/Top2vec/optimization_top2vec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/Top2vec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9C5541-ADC5-4AF0-84DE-189659495F07}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1677B542-27C6-4D3C-9CFE-A66E958CEFDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>False</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>learn</t>
+  </si>
+  <si>
+    <t>parsed</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:F3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +422,9 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -443,33 +448,33 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>

--- a/Project_python/ref/Top2vec/optimization_top2vec.xlsx
+++ b/Project_python/ref/Top2vec/optimization_top2vec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/Top2vec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1677B542-27C6-4D3C-9CFE-A66E958CEFDB}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33060E90-8FE0-4D37-A67E-3A4699B9978E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -458,11 +458,25 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -486,7 +500,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>

--- a/Project_python/ref/Top2vec/optimization_top2vec.xlsx
+++ b/Project_python/ref/Top2vec/optimization_top2vec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/Top2vec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33060E90-8FE0-4D37-A67E-3A4699B9978E}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68CCF8C-8875-47D6-9A5A-3246D025C286}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
